--- a/data/df_demand-50PC.xlsx
+++ b/data/df_demand-50PC.xlsx
@@ -1,39 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6">
-  <si>
-    <t>scenario</t>
-  </si>
-  <si>
-    <t>USA</t>
-  </si>
-  <si>
-    <t>GERMANY</t>
-  </si>
-  <si>
-    <t>JAPAN</t>
-  </si>
-  <si>
-    <t>BRAZIL</t>
-  </si>
-  <si>
-    <t>INDIA</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -72,22 +50,89 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -388,27 +433,39 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>scenario</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>GERMANY</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>JAPAN</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>BRAZIL</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>INDIA</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
@@ -431,7 +488,7 @@
         <v>160000</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3">
       <c r="A3" s="1" t="n">
         <v>0</v>
       </c>
@@ -439,22 +496,22 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>63088.51463150652</v>
+        <v>4060787.167116463</v>
       </c>
       <c r="D3" t="n">
-        <v>52094.38819767585</v>
+        <v>88479.27861820317</v>
       </c>
       <c r="E3" t="n">
-        <v>2648953.19031637</v>
+        <v>1554984.745399635</v>
       </c>
       <c r="F3" t="n">
-        <v>215451.0444483997</v>
+        <v>100922.6983497713</v>
       </c>
       <c r="G3" t="n">
-        <v>160798.3684712704</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>102540.6083482596</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" s="1" t="n">
         <v>1</v>
       </c>
@@ -462,22 +519,22 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>3580147.090962696</v>
+        <v>1915647.570962574</v>
       </c>
       <c r="D4" t="n">
-        <v>180974.5580352084</v>
+        <v>106168.0210631311</v>
       </c>
       <c r="E4" t="n">
-        <v>1281686.721450973</v>
+        <v>2313678.165485383</v>
       </c>
       <c r="F4" t="n">
-        <v>120709.8671765101</v>
+        <v>215939.4546575774</v>
       </c>
       <c r="G4" t="n">
-        <v>100327.722674593</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>169115.929039189</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="1" t="n">
         <v>2</v>
       </c>
@@ -485,22 +542,22 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>3866647.222810243</v>
+        <v>923729.5114207454</v>
       </c>
       <c r="D5" t="n">
-        <v>29913.01274884825</v>
+        <v>95022.10153103698</v>
       </c>
       <c r="E5" t="n">
-        <v>1246285.852445757</v>
+        <v>2226707.433176591</v>
       </c>
       <c r="F5" t="n">
-        <v>78067.57403416274</v>
+        <v>122756.398120181</v>
       </c>
       <c r="G5" t="n">
-        <v>93075.50481916349</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>63001.30472932963</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="1" t="n">
         <v>3</v>
       </c>
@@ -508,22 +565,22 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>1891384.405039234</v>
+        <v>2670167.514743207</v>
       </c>
       <c r="D6" t="n">
-        <v>76455.18983928851</v>
+        <v>113220.9894503068</v>
       </c>
       <c r="E6" t="n">
-        <v>2059236.436534216</v>
+        <v>1539380.370117851</v>
       </c>
       <c r="F6" t="n">
-        <v>336303.2918329127</v>
+        <v>95690.60585940414</v>
       </c>
       <c r="G6" t="n">
-        <v>191181.4727259422</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>178081.5272710449</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="1" t="n">
         <v>4</v>
       </c>
@@ -531,22 +588,22 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>2503310.845355937</v>
+        <v>2341833.474936765</v>
       </c>
       <c r="D7" t="n">
-        <v>72093.62399742746</v>
+        <v>152591.6642703643</v>
       </c>
       <c r="E7" t="n">
-        <v>2051917.293190395</v>
+        <v>10045.70359269157</v>
       </c>
       <c r="F7" t="n">
-        <v>32367.97063701838</v>
+        <v>200472.5912787961</v>
       </c>
       <c r="G7" t="n">
-        <v>274735.3016953259</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>235132.1972023947</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="1" t="n">
         <v>5</v>
       </c>
@@ -554,22 +611,22 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>1377209.294263517</v>
+        <v>2412970.328726739</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>15886.11560670051</v>
       </c>
       <c r="E8" t="n">
-        <v>2294863.485972412</v>
+        <v>2983357.695146594</v>
       </c>
       <c r="F8" t="n">
-        <v>130145.038196281</v>
+        <v>130132.3510389725</v>
       </c>
       <c r="G8" t="n">
-        <v>278806.1801724235</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>169794.8850720507</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="1" t="n">
         <v>6</v>
       </c>
@@ -577,22 +634,22 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>3633262.744634152</v>
+        <v>3281986.59624898</v>
       </c>
       <c r="D9" t="n">
-        <v>35676.70694875831</v>
+        <v>136752.0635452805</v>
       </c>
       <c r="E9" t="n">
-        <v>2505260.898313039</v>
+        <v>2899731.375448264</v>
       </c>
       <c r="F9" t="n">
-        <v>174581.1118483151</v>
+        <v>115012.3902579911</v>
       </c>
       <c r="G9" t="n">
-        <v>127804.5630079739</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>99694.20279974111</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="1" t="n">
         <v>7</v>
       </c>
@@ -600,22 +657,22 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>2369455.973474393</v>
+        <v>1726478.648760887</v>
       </c>
       <c r="D10" t="n">
-        <v>67810.47576707955</v>
+        <v>45377.39408739529</v>
       </c>
       <c r="E10" t="n">
-        <v>3592234.478999379</v>
+        <v>3007230.221677687</v>
       </c>
       <c r="F10" t="n">
-        <v>138488.6378279218</v>
+        <v>203761.4885095883</v>
       </c>
       <c r="G10" t="n">
-        <v>171648.0043373239</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>152037.9031827685</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="1" t="n">
         <v>8</v>
       </c>
@@ -623,22 +680,22 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>3317389.932249934</v>
+        <v>752206.814356795</v>
       </c>
       <c r="D11" t="n">
-        <v>95374.24614019289</v>
+        <v>74980.51112237801</v>
       </c>
       <c r="E11" t="n">
-        <v>766453.3329804789</v>
+        <v>1543161.034686771</v>
       </c>
       <c r="F11" t="n">
-        <v>174453.4985878366</v>
+        <v>173379.548750982</v>
       </c>
       <c r="G11" t="n">
-        <v>175027.7344493101</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>235951.0002395998</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="1" t="n">
         <v>9</v>
       </c>
@@ -646,22 +703,22 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>4141231.950280233</v>
+        <v>1034199.909449168</v>
       </c>
       <c r="D12" t="n">
-        <v>353.9477474529122</v>
+        <v>85276.85528698469</v>
       </c>
       <c r="E12" t="n">
-        <v>153434.1061719581</v>
+        <v>2278136.597294383</v>
       </c>
       <c r="F12" t="n">
-        <v>200617.500137152</v>
+        <v>133341.2301324764</v>
       </c>
       <c r="G12" t="n">
-        <v>188937.0431235142</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>195014.3339439582</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="1" t="n">
         <v>10</v>
       </c>
@@ -669,22 +726,22 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>4116421.397312938</v>
+        <v>4441947.416064567</v>
       </c>
       <c r="D13" t="n">
-        <v>89533.27712302808</v>
+        <v>98137.73340601241</v>
       </c>
       <c r="E13" t="n">
-        <v>1965089.158174446</v>
+        <v>974326.9530935497</v>
       </c>
       <c r="F13" t="n">
-        <v>106900.8701341332</v>
+        <v>317209.0658040731</v>
       </c>
       <c r="G13" t="n">
-        <v>111636.6175996528</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>244443.825292906</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="1" t="n">
         <v>11</v>
       </c>
@@ -692,22 +749,22 @@
         <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>3755896.698819456</v>
+        <v>3128220.401336239</v>
       </c>
       <c r="D14" t="n">
-        <v>77167.98442650109</v>
+        <v>76056.76991748162</v>
       </c>
       <c r="E14" t="n">
-        <v>979667.9230085649</v>
+        <v>3172154.924151735</v>
       </c>
       <c r="F14" t="n">
-        <v>163151.740412212</v>
+        <v>129665.6826974732</v>
       </c>
       <c r="G14" t="n">
-        <v>164353.23012049</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>141888.5617516077</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="1" t="n">
         <v>12</v>
       </c>
@@ -715,22 +772,22 @@
         <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>3754033.327120255</v>
+        <v>4426575.299674951</v>
       </c>
       <c r="D15" t="n">
-        <v>93152.29540810193</v>
+        <v>100397.2993658494</v>
       </c>
       <c r="E15" t="n">
-        <v>1612422.399191376</v>
+        <v>1943139.025045705</v>
       </c>
       <c r="F15" t="n">
-        <v>204636.8704600203</v>
+        <v>55496.5450883311</v>
       </c>
       <c r="G15" t="n">
-        <v>142247.1427037318</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>27113.18422293311</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="1" t="n">
         <v>13</v>
       </c>
@@ -738,22 +795,22 @@
         <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>1853020.163471038</v>
+        <v>678527.2767289281</v>
       </c>
       <c r="D16" t="n">
-        <v>143279.0843439439</v>
+        <v>129015.9293719193</v>
       </c>
       <c r="E16" t="n">
-        <v>2707524.115878106</v>
+        <v>3282783.772037561</v>
       </c>
       <c r="F16" t="n">
-        <v>176764.2089563195</v>
+        <v>190562.2647750632</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>56847.08983859984</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="1" t="n">
         <v>14</v>
       </c>
@@ -761,22 +818,22 @@
         <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>2412943.237974717</v>
+        <v>4781281.731277166</v>
       </c>
       <c r="D17" t="n">
-        <v>49702.80431849581</v>
+        <v>103722.3131559407</v>
       </c>
       <c r="E17" t="n">
-        <v>2622005.152185016</v>
+        <v>95900.05772744841</v>
       </c>
       <c r="F17" t="n">
-        <v>130773.1968653105</v>
+        <v>131658.202001525</v>
       </c>
       <c r="G17" t="n">
-        <v>162228.8325355961</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>218752.2588492053</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="1" t="n">
         <v>15</v>
       </c>
@@ -784,22 +841,22 @@
         <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>2744024.171239967</v>
+        <v>1035103.153236332</v>
       </c>
       <c r="D18" t="n">
-        <v>30434.91586939885</v>
+        <v>169048.0871116601</v>
       </c>
       <c r="E18" t="n">
-        <v>3319995.966526751</v>
+        <v>2351679.555563022</v>
       </c>
       <c r="F18" t="n">
-        <v>88692.08138337622</v>
+        <v>161495.6944153449</v>
       </c>
       <c r="G18" t="n">
-        <v>154717.7461179704</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>113346.2356576586</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="1" t="n">
         <v>16</v>
       </c>
@@ -807,22 +864,22 @@
         <v>17</v>
       </c>
       <c r="C19" t="n">
-        <v>2840410.372420852</v>
+        <v>987187.484353252</v>
       </c>
       <c r="D19" t="n">
-        <v>29763.02380496727</v>
+        <v>106625.6396116577</v>
       </c>
       <c r="E19" t="n">
-        <v>1868004.836314756</v>
+        <v>1923768.5762318</v>
       </c>
       <c r="F19" t="n">
-        <v>153258.4276175346</v>
+        <v>109636.8121276182</v>
       </c>
       <c r="G19" t="n">
-        <v>17086.03778701002</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>175542.1074245635</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="1" t="n">
         <v>17</v>
       </c>
@@ -830,22 +887,22 @@
         <v>18</v>
       </c>
       <c r="C20" t="n">
-        <v>597064.6048187446</v>
+        <v>1792102.989863312</v>
       </c>
       <c r="D20" t="n">
-        <v>92734.21589980295</v>
+        <v>140664.2642293223</v>
       </c>
       <c r="E20" t="n">
-        <v>730174.1734158919</v>
+        <v>1410901.936405851</v>
       </c>
       <c r="F20" t="n">
-        <v>235831.057303129</v>
+        <v>165301.0255986045</v>
       </c>
       <c r="G20" t="n">
-        <v>164766.7915810723</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="1" t="n">
         <v>18</v>
       </c>
@@ -853,22 +910,22 @@
         <v>19</v>
       </c>
       <c r="C21" t="n">
-        <v>4515024.129208959</v>
+        <v>1900348.983176344</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>116212.04267959</v>
       </c>
       <c r="E21" t="n">
-        <v>1204620.74051744</v>
+        <v>2176165.780380221</v>
       </c>
       <c r="F21" t="n">
-        <v>170315.7974615811</v>
+        <v>180387.6340988057</v>
       </c>
       <c r="G21" t="n">
-        <v>90327.51622373163</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>108459.3756495415</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="1" t="n">
         <v>19</v>
       </c>
@@ -876,22 +933,22 @@
         <v>20</v>
       </c>
       <c r="C22" t="n">
-        <v>1807261.147274924</v>
+        <v>2639877.88660208</v>
       </c>
       <c r="D22" t="n">
-        <v>119.2315602935851</v>
+        <v>47102.05710364893</v>
       </c>
       <c r="E22" t="n">
-        <v>993249.9166276501</v>
+        <v>2093131.599939755</v>
       </c>
       <c r="F22" t="n">
-        <v>155949.913097216</v>
+        <v>134794.6793016703</v>
       </c>
       <c r="G22" t="n">
-        <v>129036.4666418124</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>233573.1482805128</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="1" t="n">
         <v>20</v>
       </c>
@@ -899,22 +956,22 @@
         <v>21</v>
       </c>
       <c r="C23" t="n">
-        <v>3182647.753184586</v>
+        <v>5377130.028918053</v>
       </c>
       <c r="D23" t="n">
-        <v>115970.7175408193</v>
+        <v>26359.01119300853</v>
       </c>
       <c r="E23" t="n">
-        <v>1448066.918986203</v>
+        <v>1567716.366692802</v>
       </c>
       <c r="F23" t="n">
-        <v>215832.1508144322</v>
+        <v>172410.7566300297</v>
       </c>
       <c r="G23" t="n">
-        <v>122659.5447568725</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>164469.1170578767</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="1" t="n">
         <v>21</v>
       </c>
@@ -922,22 +979,22 @@
         <v>22</v>
       </c>
       <c r="C24" t="n">
-        <v>4268969.061529785</v>
+        <v>3696257.177513022</v>
       </c>
       <c r="D24" t="n">
-        <v>105571.4220961268</v>
+        <v>36899.30413083424</v>
       </c>
       <c r="E24" t="n">
-        <v>315478.0772604556</v>
+        <v>3213215.982209709</v>
       </c>
       <c r="F24" t="n">
-        <v>127888.5390080091</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>142216.0861309122</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>134214.2144373658</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="1" t="n">
         <v>22</v>
       </c>
@@ -945,22 +1002,22 @@
         <v>23</v>
       </c>
       <c r="C25" t="n">
-        <v>1504881.925924599</v>
+        <v>2975582.664333006</v>
       </c>
       <c r="D25" t="n">
-        <v>31057.69567118592</v>
+        <v>8734.120830646891</v>
       </c>
       <c r="E25" t="n">
-        <v>2803591.3703832</v>
+        <v>2509986.749646528</v>
       </c>
       <c r="F25" t="n">
-        <v>117211.368485242</v>
+        <v>78493.59560195361</v>
       </c>
       <c r="G25" t="n">
-        <v>315153.4782973681</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>200804.3828664054</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="1" t="n">
         <v>23</v>
       </c>
@@ -968,22 +1025,22 @@
         <v>24</v>
       </c>
       <c r="C26" t="n">
-        <v>3739338.017494515</v>
+        <v>5033694.983637016</v>
       </c>
       <c r="D26" t="n">
-        <v>87935.80805858778</v>
+        <v>19587.00733384048</v>
       </c>
       <c r="E26" t="n">
-        <v>1412039.404421216</v>
+        <v>2982841.252696478</v>
       </c>
       <c r="F26" t="n">
-        <v>384941.5262800704</v>
+        <v>228951.0185482366</v>
       </c>
       <c r="G26" t="n">
-        <v>208095.1049470268</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>169043.5926904395</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="1" t="n">
         <v>24</v>
       </c>
@@ -991,22 +1048,22 @@
         <v>25</v>
       </c>
       <c r="C27" t="n">
-        <v>5597975.159537225</v>
+        <v>2228387.946627731</v>
       </c>
       <c r="D27" t="n">
-        <v>127109.730572546</v>
+        <v>99628.79518372893</v>
       </c>
       <c r="E27" t="n">
-        <v>896140.3760742764</v>
+        <v>2962569.671069275</v>
       </c>
       <c r="F27" t="n">
-        <v>226322.7569005936</v>
+        <v>192359.8708413956</v>
       </c>
       <c r="G27" t="n">
-        <v>112565.0828802015</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>193853.3142847976</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="1" t="n">
         <v>25</v>
       </c>
@@ -1014,22 +1071,22 @@
         <v>26</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>3564370.807803323</v>
       </c>
       <c r="D28" t="n">
-        <v>88133.0886641102</v>
+        <v>169681.328746879</v>
       </c>
       <c r="E28" t="n">
-        <v>1589337.8082333</v>
+        <v>1902259.472753341</v>
       </c>
       <c r="F28" t="n">
-        <v>161761.4248033252</v>
+        <v>167051.5320954161</v>
       </c>
       <c r="G28" t="n">
-        <v>145371.2464145672</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>149135.7247597273</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="1" t="n">
         <v>26</v>
       </c>
@@ -1037,22 +1094,22 @@
         <v>27</v>
       </c>
       <c r="C29" t="n">
-        <v>2398834.641999777</v>
+        <v>2717625.846150595</v>
       </c>
       <c r="D29" t="n">
-        <v>116499.2168018728</v>
+        <v>55929.16614837792</v>
       </c>
       <c r="E29" t="n">
-        <v>1681929.223669942</v>
+        <v>453115.7673957592</v>
       </c>
       <c r="F29" t="n">
-        <v>91738.2388671074</v>
+        <v>82439.7749158557</v>
       </c>
       <c r="G29" t="n">
-        <v>130623.7077646581</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>34262.74241001376</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="1" t="n">
         <v>27</v>
       </c>
@@ -1060,22 +1117,22 @@
         <v>28</v>
       </c>
       <c r="C30" t="n">
-        <v>2719868.471713962</v>
+        <v>3005574.936370748</v>
       </c>
       <c r="D30" t="n">
-        <v>150739.0482105074</v>
+        <v>66249.71327052821</v>
       </c>
       <c r="E30" t="n">
-        <v>2330073.510716216</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>258450.6744135846</v>
+        <v>289381.8145722334</v>
       </c>
       <c r="G30" t="n">
-        <v>100079.2938850144</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>4881.791490251169</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="1" t="n">
         <v>28</v>
       </c>
@@ -1083,22 +1140,22 @@
         <v>29</v>
       </c>
       <c r="C31" t="n">
-        <v>3597396.6510465</v>
+        <v>1046929.060129453</v>
       </c>
       <c r="D31" t="n">
-        <v>76332.54525443143</v>
+        <v>96739.45312367266</v>
       </c>
       <c r="E31" t="n">
-        <v>745020.8154773267</v>
+        <v>3190709.794009372</v>
       </c>
       <c r="F31" t="n">
-        <v>360019.4599324399</v>
+        <v>204333.1009280753</v>
       </c>
       <c r="G31" t="n">
-        <v>147734.8711549236</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>297593.3884539031</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="1" t="n">
         <v>29</v>
       </c>
@@ -1106,22 +1163,22 @@
         <v>30</v>
       </c>
       <c r="C32" t="n">
-        <v>3606110.292848613</v>
+        <v>1382997.520732865</v>
       </c>
       <c r="D32" t="n">
-        <v>94752.52183085871</v>
+        <v>116737.3866507165</v>
       </c>
       <c r="E32" t="n">
-        <v>1359247.690203001</v>
+        <v>2649293.683262113</v>
       </c>
       <c r="F32" t="n">
-        <v>221296.2640141675</v>
+        <v>123553.4289122032</v>
       </c>
       <c r="G32" t="n">
-        <v>121587.989942582</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>106760.9264461425</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="1" t="n">
         <v>30</v>
       </c>
@@ -1129,22 +1186,22 @@
         <v>31</v>
       </c>
       <c r="C33" t="n">
-        <v>2643472.863927404</v>
+        <v>1321650.285763001</v>
       </c>
       <c r="D33" t="n">
-        <v>85518.51524838983</v>
+        <v>40868.1131649556</v>
       </c>
       <c r="E33" t="n">
-        <v>2638145.64572853</v>
+        <v>1250491.816689264</v>
       </c>
       <c r="F33" t="n">
-        <v>2291.488226132118</v>
+        <v>233206.4465328875</v>
       </c>
       <c r="G33" t="n">
-        <v>216547.4989938895</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="1" t="n">
         <v>31</v>
       </c>
@@ -1152,22 +1209,22 @@
         <v>32</v>
       </c>
       <c r="C34" t="n">
-        <v>3001900.515422632</v>
+        <v>3538397.015972414</v>
       </c>
       <c r="D34" t="n">
-        <v>158209.9988286631</v>
+        <v>166275.1565857001</v>
       </c>
       <c r="E34" t="n">
-        <v>1450906.075019374</v>
+        <v>1092759.646678101</v>
       </c>
       <c r="F34" t="n">
-        <v>80714.21543470418</v>
+        <v>222054.7331772518</v>
       </c>
       <c r="G34" t="n">
-        <v>253174.6395291754</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>181410.7545813386</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="1" t="n">
         <v>32</v>
       </c>
@@ -1175,22 +1232,22 @@
         <v>33</v>
       </c>
       <c r="C35" t="n">
-        <v>2279698.636328528</v>
+        <v>2084719.961029235</v>
       </c>
       <c r="D35" t="n">
-        <v>62159.69052095924</v>
+        <v>99967.63703347582</v>
       </c>
       <c r="E35" t="n">
-        <v>709656.4606219262</v>
+        <v>1184968.74336789</v>
       </c>
       <c r="F35" t="n">
-        <v>202985.612723216</v>
+        <v>185149.5041640383</v>
       </c>
       <c r="G35" t="n">
-        <v>314482.7801327867</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>114692.3694166108</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="1" t="n">
         <v>33</v>
       </c>
@@ -1198,22 +1255,22 @@
         <v>34</v>
       </c>
       <c r="C36" t="n">
-        <v>2726282.911865629</v>
+        <v>3941395.803326436</v>
       </c>
       <c r="D36" t="n">
-        <v>93055.57611350472</v>
+        <v>49996.47948609156</v>
       </c>
       <c r="E36" t="n">
-        <v>966136.6579799827</v>
+        <v>2782150.573664569</v>
       </c>
       <c r="F36" t="n">
-        <v>241101.8190005399</v>
+        <v>226005.7216522574</v>
       </c>
       <c r="G36" t="n">
-        <v>103533.3642448976</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>112745.3416368323</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="1" t="n">
         <v>34</v>
       </c>
@@ -1221,22 +1278,22 @@
         <v>35</v>
       </c>
       <c r="C37" t="n">
-        <v>3165093.164541127</v>
+        <v>3359244.912668818</v>
       </c>
       <c r="D37" t="n">
-        <v>1551.482303128869</v>
+        <v>37429.29199658637</v>
       </c>
       <c r="E37" t="n">
-        <v>1316746.075974972</v>
+        <v>1983921.511348866</v>
       </c>
       <c r="F37" t="n">
-        <v>155279.6673415217</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>197952.7717773571</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+        <v>152955.0590371967</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="1" t="n">
         <v>35</v>
       </c>
@@ -1244,22 +1301,22 @@
         <v>36</v>
       </c>
       <c r="C38" t="n">
-        <v>1826791.886514851</v>
+        <v>2853528.131531496</v>
       </c>
       <c r="D38" t="n">
-        <v>108429.4736924521</v>
+        <v>95944.83023229594</v>
       </c>
       <c r="E38" t="n">
-        <v>2002481.586905386</v>
+        <v>1203492.931001071</v>
       </c>
       <c r="F38" t="n">
-        <v>184420.7842049532</v>
+        <v>258226.4616122585</v>
       </c>
       <c r="G38" t="n">
-        <v>48156.24078600353</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>192324.3956223365</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="1" t="n">
         <v>36</v>
       </c>
@@ -1267,22 +1324,22 @@
         <v>37</v>
       </c>
       <c r="C39" t="n">
-        <v>1308626.26629362</v>
+        <v>4780744.376544657</v>
       </c>
       <c r="D39" t="n">
-        <v>70453.836178964</v>
+        <v>112980.1579734548</v>
       </c>
       <c r="E39" t="n">
-        <v>501730.8529045542</v>
+        <v>1764031.201108863</v>
       </c>
       <c r="F39" t="n">
-        <v>24838.26048067055</v>
+        <v>173128.153456626</v>
       </c>
       <c r="G39" t="n">
-        <v>209604.6493620449</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>366374.8821467378</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="1" t="n">
         <v>37</v>
       </c>
@@ -1290,22 +1347,22 @@
         <v>38</v>
       </c>
       <c r="C40" t="n">
-        <v>3054733.665053263</v>
+        <v>2626341.20121611</v>
       </c>
       <c r="D40" t="n">
-        <v>31506.19341526849</v>
+        <v>55062.79105976154</v>
       </c>
       <c r="E40" t="n">
-        <v>2094367.614877417</v>
+        <v>1890454.765926264</v>
       </c>
       <c r="F40" t="n">
-        <v>85682.73358619718</v>
+        <v>187681.0855463454</v>
       </c>
       <c r="G40" t="n">
-        <v>148224.7481571751</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>204246.0720464237</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="1" t="n">
         <v>38</v>
       </c>
@@ -1313,22 +1370,22 @@
         <v>39</v>
       </c>
       <c r="C41" t="n">
-        <v>2068742.319703665</v>
+        <v>2243880.130344231</v>
       </c>
       <c r="D41" t="n">
-        <v>99913.21105468315</v>
+        <v>38299.48642809677</v>
       </c>
       <c r="E41" t="n">
-        <v>1921963.319606081</v>
+        <v>2660721.335769447</v>
       </c>
       <c r="F41" t="n">
-        <v>255170.9258338724</v>
+        <v>154379.4454389151</v>
       </c>
       <c r="G41" t="n">
-        <v>274976.6101719099</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>118151.9986710612</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="1" t="n">
         <v>39</v>
       </c>
@@ -1336,22 +1393,22 @@
         <v>40</v>
       </c>
       <c r="C42" t="n">
-        <v>4034514.703287674</v>
+        <v>2298286.033891341</v>
       </c>
       <c r="D42" t="n">
-        <v>116858.5494034249</v>
+        <v>105518.4828012478</v>
       </c>
       <c r="E42" t="n">
-        <v>214071.0575648204</v>
+        <v>830474.4762342438</v>
       </c>
       <c r="F42" t="n">
-        <v>118369.0665218537</v>
+        <v>138629.8451990552</v>
       </c>
       <c r="G42" t="n">
-        <v>113177.9752141761</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>155575.5128948345</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="1" t="n">
         <v>40</v>
       </c>
@@ -1359,22 +1416,22 @@
         <v>41</v>
       </c>
       <c r="C43" t="n">
-        <v>3645576.027992033</v>
+        <v>1871275.460211388</v>
       </c>
       <c r="D43" t="n">
-        <v>160880.1450666972</v>
+        <v>34102.37843675498</v>
       </c>
       <c r="E43" t="n">
-        <v>2619233.758131173</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>29079.44062905</v>
+        <v>289064.7156832675</v>
       </c>
       <c r="G43" t="n">
-        <v>86111.73366085866</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>257239.3958098563</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="1" t="n">
         <v>41</v>
       </c>
@@ -1382,22 +1439,22 @@
         <v>42</v>
       </c>
       <c r="C44" t="n">
-        <v>2411565.10824156</v>
+        <v>222231.0968038174</v>
       </c>
       <c r="D44" t="n">
-        <v>43808.05179951631</v>
+        <v>13416.78306754373</v>
       </c>
       <c r="E44" t="n">
-        <v>2401996.618176298</v>
+        <v>247534.9538433314</v>
       </c>
       <c r="F44" t="n">
-        <v>105035.6082300027</v>
+        <v>223487.0305055563</v>
       </c>
       <c r="G44" t="n">
-        <v>256987.8815894225</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>177513.9766534714</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="1" t="n">
         <v>42</v>
       </c>
@@ -1405,22 +1462,22 @@
         <v>43</v>
       </c>
       <c r="C45" t="n">
-        <v>4111053.672808128</v>
+        <v>3267360.292979687</v>
       </c>
       <c r="D45" t="n">
-        <v>2789.750231503713</v>
+        <v>2692.408140135303</v>
       </c>
       <c r="E45" t="n">
-        <v>1021239.434675839</v>
+        <v>2231163.895009959</v>
       </c>
       <c r="F45" t="n">
-        <v>175890.4064728059</v>
+        <v>100216.2188282683</v>
       </c>
       <c r="G45" t="n">
-        <v>127440.3330294081</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
+        <v>129584.3081193053</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="1" t="n">
         <v>43</v>
       </c>
@@ -1428,22 +1485,22 @@
         <v>44</v>
       </c>
       <c r="C46" t="n">
-        <v>2734999.486263476</v>
+        <v>1920898.470441803</v>
       </c>
       <c r="D46" t="n">
-        <v>79182.63410091141</v>
+        <v>54067.55289527195</v>
       </c>
       <c r="E46" t="n">
-        <v>2327967.335478411</v>
+        <v>240473.2743135069</v>
       </c>
       <c r="F46" t="n">
-        <v>265646.3637753163</v>
+        <v>329748.8644029546</v>
       </c>
       <c r="G46" t="n">
-        <v>166958.0803744119</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>66122.52852292573</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="1" t="n">
         <v>44</v>
       </c>
@@ -1451,22 +1508,22 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>1677208.903003991</v>
+        <v>3063874.938927959</v>
       </c>
       <c r="D47" t="n">
-        <v>31575.80837863065</v>
+        <v>70771.46454665629</v>
       </c>
       <c r="E47" t="n">
-        <v>1469471.149231245</v>
+        <v>1792970.206152124</v>
       </c>
       <c r="F47" t="n">
-        <v>84974.56811221066</v>
+        <v>221850.9430539124</v>
       </c>
       <c r="G47" t="n">
-        <v>158068.8013901967</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>207032.930954934</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="1" t="n">
         <v>45</v>
       </c>
@@ -1474,22 +1531,22 @@
         <v>46</v>
       </c>
       <c r="C48" t="n">
-        <v>3462296.213534002</v>
+        <v>3018727.431180622</v>
       </c>
       <c r="D48" t="n">
-        <v>115678.6476877899</v>
+        <v>102410.0247430122</v>
       </c>
       <c r="E48" t="n">
-        <v>1114954.268398247</v>
+        <v>1828561.743994579</v>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>108853.3733080222</v>
       </c>
       <c r="G48" t="n">
-        <v>177626.7561739128</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>191127.5787927115</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="1" t="n">
         <v>46</v>
       </c>
@@ -1497,22 +1554,22 @@
         <v>47</v>
       </c>
       <c r="C49" t="n">
-        <v>769629.103606604</v>
+        <v>4246097.217403655</v>
       </c>
       <c r="D49" t="n">
-        <v>88529.51222961119</v>
+        <v>88692.0627378341</v>
       </c>
       <c r="E49" t="n">
-        <v>1069709.29958321</v>
+        <v>1638514.823303583</v>
       </c>
       <c r="F49" t="n">
-        <v>165239.7219239992</v>
+        <v>337455.5636326786</v>
       </c>
       <c r="G49" t="n">
-        <v>155737.5118439387</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>266716.5318500387</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="1" t="n">
         <v>47</v>
       </c>
@@ -1520,22 +1577,22 @@
         <v>48</v>
       </c>
       <c r="C50" t="n">
-        <v>2586743.621378251</v>
+        <v>2685768.790063222</v>
       </c>
       <c r="D50" t="n">
-        <v>109636.2496242739</v>
+        <v>158232.8728723034</v>
       </c>
       <c r="E50" t="n">
-        <v>653844.0198233161</v>
+        <v>1700591.641723105</v>
       </c>
       <c r="F50" t="n">
-        <v>144457.1774557189</v>
+        <v>99308.06013218698</v>
       </c>
       <c r="G50" t="n">
-        <v>267451.367073395</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>306566.2355240388</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="1" t="n">
         <v>48</v>
       </c>
@@ -1543,22 +1600,22 @@
         <v>49</v>
       </c>
       <c r="C51" t="n">
-        <v>3034147.536570425</v>
+        <v>4426506.277235449</v>
       </c>
       <c r="D51" t="n">
-        <v>71598.85044643265</v>
+        <v>145305.55981822</v>
       </c>
       <c r="E51" t="n">
-        <v>2878128.092830447</v>
+        <v>1405311.836662466</v>
       </c>
       <c r="F51" t="n">
-        <v>162770.4589613178</v>
+        <v>230793.0222125128</v>
       </c>
       <c r="G51" t="n">
-        <v>151144.2291011298</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>172682.7458011537</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="1" t="n">
         <v>49</v>
       </c>
@@ -1566,22 +1623,22 @@
         <v>50</v>
       </c>
       <c r="C52" t="n">
-        <v>3433314.011385139</v>
+        <v>1591270.620078078</v>
       </c>
       <c r="D52" t="n">
-        <v>71464.06948759231</v>
+        <v>62128.64724824347</v>
       </c>
       <c r="E52" t="n">
-        <v>1038244.433291688</v>
+        <v>1527243.994190219</v>
       </c>
       <c r="F52" t="n">
-        <v>148816.4804046104</v>
+        <v>19343.44074305246</v>
       </c>
       <c r="G52" t="n">
-        <v>0</v>
+        <v>263444.7696234038</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>